--- a/public/data/result/output/index.xlsx
+++ b/public/data/result/output/index.xlsx
@@ -436,17 +436,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>基础指标</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>单位</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>指标代码</t>
+          <t>code</t>
         </is>
       </c>
     </row>
